--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Col18a1-Gpc4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Col18a1-Gpc4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>54.5090905</v>
+        <v>19.3839195</v>
       </c>
       <c r="H2">
-        <v>109.018181</v>
+        <v>38.767839</v>
       </c>
       <c r="I2">
-        <v>0.4968355992046299</v>
+        <v>0.2693195261146905</v>
       </c>
       <c r="J2">
-        <v>0.4461306648899932</v>
+        <v>0.2583991365828404</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.853143</v>
+        <v>8.685451</v>
       </c>
       <c r="N2">
-        <v>35.706286</v>
+        <v>17.370902</v>
       </c>
       <c r="O2">
-        <v>0.2631497248132529</v>
+        <v>0.1826696911121277</v>
       </c>
       <c r="P2">
-        <v>0.2070937143112604</v>
+        <v>0.1438119304537112</v>
       </c>
       <c r="Q2">
-        <v>973.1585874964414</v>
+        <v>168.3580830051945</v>
       </c>
       <c r="R2">
-        <v>3892.634349985766</v>
+        <v>673.4323320207781</v>
       </c>
       <c r="S2">
-        <v>0.130742151208126</v>
+        <v>0.04919651464583513</v>
       </c>
       <c r="T2">
-        <v>0.09239085646022091</v>
+        <v>0.03716087865955046</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>54.5090905</v>
+        <v>19.3839195</v>
       </c>
       <c r="H3">
-        <v>109.018181</v>
+        <v>38.767839</v>
       </c>
       <c r="I3">
-        <v>0.4968355992046299</v>
+        <v>0.2693195261146905</v>
       </c>
       <c r="J3">
-        <v>0.4461306648899932</v>
+        <v>0.2583991365828404</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>76.832796</v>
       </c>
       <c r="O3">
-        <v>0.3774970999790308</v>
+        <v>0.5386411180644168</v>
       </c>
       <c r="P3">
-        <v>0.4456243112083781</v>
+        <v>0.6360909016075377</v>
       </c>
       <c r="Q3">
-        <v>1396.028610177346</v>
+        <v>496.440244207974</v>
       </c>
       <c r="R3">
-        <v>8376.171661064076</v>
+        <v>2978.641465247844</v>
       </c>
       <c r="S3">
-        <v>0.1875539978660918</v>
+        <v>0.1450665706629958</v>
       </c>
       <c r="T3">
-        <v>0.198806670250539</v>
+        <v>0.1643653397635882</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>54.5090905</v>
+        <v>19.3839195</v>
       </c>
       <c r="H4">
-        <v>109.018181</v>
+        <v>38.767839</v>
       </c>
       <c r="I4">
-        <v>0.4968355992046299</v>
+        <v>0.2693195261146905</v>
       </c>
       <c r="J4">
-        <v>0.4461306648899932</v>
+        <v>0.2583991365828404</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>13.262928</v>
+        <v>0.03095266666666667</v>
       </c>
       <c r="N4">
-        <v>26.525856</v>
+        <v>0.092858</v>
       </c>
       <c r="O4">
-        <v>0.1954913963002474</v>
+        <v>0.0006509868122100569</v>
       </c>
       <c r="P4">
-        <v>0.1538479259457462</v>
+        <v>0.0007687619352219425</v>
       </c>
       <c r="Q4">
-        <v>722.950142646984</v>
+        <v>0.5999839989770001</v>
       </c>
       <c r="R4">
-        <v>2891.800570587936</v>
+        <v>3.599903993862</v>
       </c>
       <c r="S4">
-        <v>0.09712708502018316</v>
+        <v>0.0001753234597713255</v>
       </c>
       <c r="T4">
-        <v>0.06863627749412217</v>
+        <v>0.0001986474202991034</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -729,51 +729,51 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>54.5090905</v>
+        <v>19.3839195</v>
       </c>
       <c r="H5">
-        <v>109.018181</v>
+        <v>38.767839</v>
       </c>
       <c r="I5">
-        <v>0.4968355992046299</v>
+        <v>0.2693195261146905</v>
       </c>
       <c r="J5">
-        <v>0.4461306648899932</v>
+        <v>0.2583991365828404</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>11.11704666666667</v>
+        <v>13.1674365</v>
       </c>
       <c r="N5">
-        <v>33.35114</v>
+        <v>26.334873</v>
       </c>
       <c r="O5">
-        <v>0.1638617789074688</v>
+        <v>0.2769334094675747</v>
       </c>
       <c r="P5">
-        <v>0.1934340485346152</v>
+        <v>0.2180237344257262</v>
       </c>
       <c r="Q5">
-        <v>605.9801028460566</v>
+        <v>255.2365291373618</v>
       </c>
       <c r="R5">
-        <v>3635.88061707634</v>
+        <v>1020.946116549447</v>
       </c>
       <c r="S5">
-        <v>0.08141236511022884</v>
+        <v>0.07458357460313275</v>
       </c>
       <c r="T5">
-        <v>0.08629686068511108</v>
+        <v>0.05633714473017415</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,55 +782,55 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.749654</v>
+        <v>19.3839195</v>
       </c>
       <c r="H6">
-        <v>17.248962</v>
+        <v>38.767839</v>
       </c>
       <c r="I6">
-        <v>0.05240653924154719</v>
+        <v>0.2693195261146905</v>
       </c>
       <c r="J6">
-        <v>0.0705872251319459</v>
+        <v>0.2583991365828404</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>17.853143</v>
+        <v>0.05253</v>
       </c>
       <c r="N6">
-        <v>35.706286</v>
+        <v>0.15759</v>
       </c>
       <c r="O6">
-        <v>0.2631497248132529</v>
+        <v>0.001104794543670797</v>
       </c>
       <c r="P6">
-        <v>0.2070937143112604</v>
+        <v>0.001304671577802946</v>
       </c>
       <c r="Q6">
-        <v>102.649395062522</v>
+        <v>1.018237291335</v>
       </c>
       <c r="R6">
-        <v>615.8963703751319</v>
+        <v>6.10942374801</v>
       </c>
       <c r="S6">
-        <v>0.01379076637982808</v>
+        <v>0.0002975427429555148</v>
       </c>
       <c r="T6">
-        <v>0.01461817063549983</v>
+        <v>0.0003371260092284532</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -859,40 +859,40 @@
         <v>17.248962</v>
       </c>
       <c r="I7">
-        <v>0.05240653924154719</v>
+        <v>0.07988549945244224</v>
       </c>
       <c r="J7">
-        <v>0.0705872251319459</v>
+        <v>0.1149694438152775</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>25.610932</v>
+        <v>8.685451</v>
       </c>
       <c r="N7">
-        <v>76.832796</v>
+        <v>17.370902</v>
       </c>
       <c r="O7">
-        <v>0.3774970999790308</v>
+        <v>0.1826696911121277</v>
       </c>
       <c r="P7">
-        <v>0.4456243112083781</v>
+        <v>0.1438119304537112</v>
       </c>
       <c r="Q7">
-        <v>147.253997617528</v>
+        <v>49.938338083954</v>
       </c>
       <c r="R7">
-        <v>1325.285978557752</v>
+        <v>299.630028503724</v>
       </c>
       <c r="S7">
-        <v>0.01978331658362134</v>
+        <v>0.01459265950931567</v>
       </c>
       <c r="T7">
-        <v>0.0314553835795341</v>
+        <v>0.01653397765826454</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -921,40 +921,40 @@
         <v>17.248962</v>
       </c>
       <c r="I8">
-        <v>0.05240653924154719</v>
+        <v>0.07988549945244224</v>
       </c>
       <c r="J8">
-        <v>0.0705872251319459</v>
+        <v>0.1149694438152775</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>13.262928</v>
+        <v>25.610932</v>
       </c>
       <c r="N8">
-        <v>26.525856</v>
+        <v>76.832796</v>
       </c>
       <c r="O8">
-        <v>0.1954913963002474</v>
+        <v>0.5386411180644168</v>
       </c>
       <c r="P8">
-        <v>0.1538479259457462</v>
+        <v>0.6360909016075377</v>
       </c>
       <c r="Q8">
-        <v>76.257247026912</v>
+        <v>147.253997617528</v>
       </c>
       <c r="R8">
-        <v>457.543482161472</v>
+        <v>1325.285978557752</v>
       </c>
       <c r="S8">
-        <v>0.01024502753159377</v>
+        <v>0.04302961474219785</v>
       </c>
       <c r="T8">
-        <v>0.01085969818481533</v>
+        <v>0.073131017173777</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -983,45 +983,45 @@
         <v>17.248962</v>
       </c>
       <c r="I9">
-        <v>0.05240653924154719</v>
+        <v>0.07988549945244224</v>
       </c>
       <c r="J9">
-        <v>0.0705872251319459</v>
+        <v>0.1149694438152775</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>11.11704666666667</v>
+        <v>0.03095266666666667</v>
       </c>
       <c r="N9">
-        <v>33.35114</v>
+        <v>0.092858</v>
       </c>
       <c r="O9">
-        <v>0.1638617789074688</v>
+        <v>0.0006509868122100569</v>
       </c>
       <c r="P9">
-        <v>0.1934340485346152</v>
+        <v>0.0007687619352219425</v>
       </c>
       <c r="Q9">
-        <v>63.91917183518667</v>
+        <v>0.1779671237106666</v>
       </c>
       <c r="R9">
-        <v>575.27254651668</v>
+        <v>1.601704113396</v>
       </c>
       <c r="S9">
-        <v>0.008587428746503992</v>
+        <v>5.200440663035361E-05</v>
       </c>
       <c r="T9">
-        <v>0.01365397273209663</v>
+        <v>8.83841321188231E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,25 +1030,25 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.2246043333333333</v>
+        <v>5.749654</v>
       </c>
       <c r="H10">
-        <v>0.673813</v>
+        <v>17.248962</v>
       </c>
       <c r="I10">
-        <v>0.002047207676958453</v>
+        <v>0.07988549945244224</v>
       </c>
       <c r="J10">
-        <v>0.002757417514620988</v>
+        <v>0.1149694438152775</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1057,33 +1057,33 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>17.853143</v>
+        <v>13.1674365</v>
       </c>
       <c r="N10">
-        <v>35.706286</v>
+        <v>26.334873</v>
       </c>
       <c r="O10">
-        <v>0.2631497248132529</v>
+        <v>0.2769334094675747</v>
       </c>
       <c r="P10">
-        <v>0.2070937143112604</v>
+        <v>0.2180237344257262</v>
       </c>
       <c r="Q10">
-        <v>4.009893281419666</v>
+        <v>75.70820394197099</v>
       </c>
       <c r="R10">
-        <v>24.059359688518</v>
+        <v>454.249223651826</v>
       </c>
       <c r="S10">
-        <v>0.0005387221368271957</v>
+        <v>0.0221229637303849</v>
       </c>
       <c r="T10">
-        <v>0.0005710438350097845</v>
+        <v>0.02506606748545551</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,55 +1092,55 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.2246043333333333</v>
+        <v>5.749654</v>
       </c>
       <c r="H11">
-        <v>0.673813</v>
+        <v>17.248962</v>
       </c>
       <c r="I11">
-        <v>0.002047207676958453</v>
+        <v>0.07988549945244224</v>
       </c>
       <c r="J11">
-        <v>0.002757417514620988</v>
+        <v>0.1149694438152775</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>25.610932</v>
+        <v>0.05253</v>
       </c>
       <c r="N11">
-        <v>76.832796</v>
+        <v>0.15759</v>
       </c>
       <c r="O11">
-        <v>0.3774970999790308</v>
+        <v>0.001104794543670797</v>
       </c>
       <c r="P11">
-        <v>0.4456243112083781</v>
+        <v>0.001304671577802946</v>
       </c>
       <c r="Q11">
-        <v>5.752326307905333</v>
+        <v>0.30202932462</v>
       </c>
       <c r="R11">
-        <v>51.770936771148</v>
+        <v>2.71826392158</v>
       </c>
       <c r="S11">
-        <v>0.0007728149611066245</v>
+        <v>8.825706391347463E-05</v>
       </c>
       <c r="T11">
-        <v>0.001228772280666895</v>
+        <v>0.0001499973656616052</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,25 +1154,25 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.2246043333333333</v>
+        <v>0.05230033333333334</v>
       </c>
       <c r="H12">
-        <v>0.673813</v>
+        <v>0.156901</v>
       </c>
       <c r="I12">
-        <v>0.002047207676958453</v>
+        <v>0.0007266590737220965</v>
       </c>
       <c r="J12">
-        <v>0.002757417514620988</v>
+        <v>0.001045791665844058</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>13.262928</v>
+        <v>8.685451</v>
       </c>
       <c r="N12">
-        <v>26.525856</v>
+        <v>17.370902</v>
       </c>
       <c r="O12">
-        <v>0.1954913963002474</v>
+        <v>0.1826696911121277</v>
       </c>
       <c r="P12">
-        <v>0.1538479259457462</v>
+        <v>0.1438119304537112</v>
       </c>
       <c r="Q12">
-        <v>2.978911101488</v>
+        <v>0.4542519824503334</v>
       </c>
       <c r="R12">
-        <v>17.873466608928</v>
+        <v>2.725511894702001</v>
       </c>
       <c r="S12">
-        <v>0.0004002114872851937</v>
+        <v>0.0001327385885406402</v>
       </c>
       <c r="T12">
-        <v>0.0004242229655909131</v>
+        <v>0.0001503973183174364</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,25 +1216,25 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.2246043333333333</v>
+        <v>0.05230033333333334</v>
       </c>
       <c r="H13">
-        <v>0.673813</v>
+        <v>0.156901</v>
       </c>
       <c r="I13">
-        <v>0.002047207676958453</v>
+        <v>0.0007266590737220965</v>
       </c>
       <c r="J13">
-        <v>0.002757417514620988</v>
+        <v>0.001045791665844058</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,33 +1243,33 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>11.11704666666667</v>
+        <v>25.610932</v>
       </c>
       <c r="N13">
-        <v>33.35114</v>
+        <v>76.832796</v>
       </c>
       <c r="O13">
-        <v>0.1638617789074688</v>
+        <v>0.5386411180644168</v>
       </c>
       <c r="P13">
-        <v>0.1934340485346152</v>
+        <v>0.6360909016075377</v>
       </c>
       <c r="Q13">
-        <v>2.496936855202222</v>
+        <v>1.339460280577333</v>
       </c>
       <c r="R13">
-        <v>22.47243169682</v>
+        <v>12.055142525196</v>
       </c>
       <c r="S13">
-        <v>0.0003354590917394388</v>
+        <v>0.0003914084559213236</v>
       </c>
       <c r="T13">
-        <v>0.0005333784333533941</v>
+        <v>0.0006652185636203956</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1278,122 +1278,122 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>30.264707</v>
+        <v>0.05230033333333334</v>
       </c>
       <c r="H14">
-        <v>60.529414</v>
+        <v>0.156901</v>
       </c>
       <c r="I14">
-        <v>0.2758546088215792</v>
+        <v>0.0007266590737220965</v>
       </c>
       <c r="J14">
-        <v>0.2477020572671421</v>
+        <v>0.001045791665844058</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>17.853143</v>
+        <v>0.03095266666666667</v>
       </c>
       <c r="N14">
-        <v>35.706286</v>
+        <v>0.092858</v>
       </c>
       <c r="O14">
-        <v>0.2631497248132529</v>
+        <v>0.0006509868122100569</v>
       </c>
       <c r="P14">
-        <v>0.2070937143112604</v>
+        <v>0.0007687619352219425</v>
       </c>
       <c r="Q14">
-        <v>540.320141924101</v>
+        <v>0.001618834784222222</v>
       </c>
       <c r="R14">
-        <v>2161.280567696404</v>
+        <v>0.014569513058</v>
       </c>
       <c r="S14">
-        <v>0.0725910643998661</v>
+        <v>4.730454739658603E-07</v>
       </c>
       <c r="T14">
-        <v>0.051297539081993</v>
+        <v>8.03964824873257E-07</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>30.264707</v>
+        <v>0.05230033333333334</v>
       </c>
       <c r="H15">
-        <v>60.529414</v>
+        <v>0.156901</v>
       </c>
       <c r="I15">
-        <v>0.2758546088215792</v>
+        <v>0.0007266590737220965</v>
       </c>
       <c r="J15">
-        <v>0.2477020572671421</v>
+        <v>0.001045791665844058</v>
       </c>
       <c r="K15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>25.610932</v>
+        <v>13.1674365</v>
       </c>
       <c r="N15">
-        <v>76.832796</v>
+        <v>26.334873</v>
       </c>
       <c r="O15">
-        <v>0.3774970999790308</v>
+        <v>0.2769334094675747</v>
       </c>
       <c r="P15">
-        <v>0.4456243112083781</v>
+        <v>0.2180237344257262</v>
       </c>
       <c r="Q15">
-        <v>775.1073529769241</v>
+        <v>0.6886613180955001</v>
       </c>
       <c r="R15">
-        <v>4650.644117861544</v>
+        <v>4.131967908573</v>
       </c>
       <c r="S15">
-        <v>0.1041343148459961</v>
+        <v>0.0002012361748064099</v>
       </c>
       <c r="T15">
-        <v>0.1103820586545684</v>
+        <v>0.0002280074044186227</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,55 +1402,55 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>30.264707</v>
+        <v>0.05230033333333334</v>
       </c>
       <c r="H16">
-        <v>60.529414</v>
+        <v>0.156901</v>
       </c>
       <c r="I16">
-        <v>0.2758546088215792</v>
+        <v>0.0007266590737220965</v>
       </c>
       <c r="J16">
-        <v>0.2477020572671421</v>
+        <v>0.001045791665844058</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>13.262928</v>
+        <v>0.05253</v>
       </c>
       <c r="N16">
-        <v>26.525856</v>
+        <v>0.15759</v>
       </c>
       <c r="O16">
-        <v>0.1954913963002474</v>
+        <v>0.001104794543670797</v>
       </c>
       <c r="P16">
-        <v>0.1538479259457462</v>
+        <v>0.001304671577802946</v>
       </c>
       <c r="Q16">
-        <v>401.398629882096</v>
+        <v>0.00274733651</v>
       </c>
       <c r="R16">
-        <v>1605.594519528384</v>
+        <v>0.02472602859</v>
       </c>
       <c r="S16">
-        <v>0.05392720265438905</v>
+        <v>8.028089797570477E-07</v>
       </c>
       <c r="T16">
-        <v>0.03810844776304426</v>
+        <v>1.364414662729938E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,7 +1464,7 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -1473,51 +1473,51 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>30.264707</v>
+        <v>46.506306</v>
       </c>
       <c r="H17">
-        <v>60.529414</v>
+        <v>93.012612</v>
       </c>
       <c r="I17">
-        <v>0.2758546088215792</v>
+        <v>0.6461570526675364</v>
       </c>
       <c r="J17">
-        <v>0.2477020572671421</v>
+        <v>0.6199566251839504</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>11.11704666666667</v>
+        <v>8.685451</v>
       </c>
       <c r="N17">
-        <v>33.35114</v>
+        <v>17.370902</v>
       </c>
       <c r="O17">
-        <v>0.1638617789074688</v>
+        <v>0.1826696911121277</v>
       </c>
       <c r="P17">
-        <v>0.1934340485346152</v>
+        <v>0.1438119304537112</v>
       </c>
       <c r="Q17">
-        <v>336.4541600719934</v>
+        <v>403.9282419540061</v>
       </c>
       <c r="R17">
-        <v>2018.72496043196</v>
+        <v>1615.712967816024</v>
       </c>
       <c r="S17">
-        <v>0.0452020269213279</v>
+        <v>0.1180333092207017</v>
       </c>
       <c r="T17">
-        <v>0.04791401176753639</v>
+        <v>0.08915715906527177</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,60 +1526,60 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>46.506306</v>
+      </c>
+      <c r="H18">
+        <v>93.012612</v>
+      </c>
+      <c r="I18">
+        <v>0.6461570526675364</v>
+      </c>
+      <c r="J18">
+        <v>0.6199566251839504</v>
+      </c>
+      <c r="K18">
         <v>3</v>
       </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>18.89124133333333</v>
-      </c>
-      <c r="H18">
-        <v>56.673724</v>
-      </c>
-      <c r="I18">
-        <v>0.1721885491295427</v>
-      </c>
-      <c r="J18">
-        <v>0.2319235740129618</v>
-      </c>
-      <c r="K18">
-        <v>2</v>
-      </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>17.853143</v>
+        <v>25.610932</v>
       </c>
       <c r="N18">
-        <v>35.706286</v>
+        <v>76.832796</v>
       </c>
       <c r="O18">
-        <v>0.2631497248132529</v>
+        <v>0.5386411180644168</v>
       </c>
       <c r="P18">
-        <v>0.2070937143112604</v>
+        <v>0.6360909016075377</v>
       </c>
       <c r="Q18">
-        <v>337.2680329715106</v>
+        <v>1191.069840537192</v>
       </c>
       <c r="R18">
-        <v>2023.608197829064</v>
+        <v>7146.419043223153</v>
       </c>
       <c r="S18">
-        <v>0.04531136931943244</v>
+        <v>0.3480467572940501</v>
       </c>
       <c r="T18">
-        <v>0.04802991437868677</v>
+        <v>0.3943487686708254</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,60 +1588,60 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>18.89124133333333</v>
+        <v>46.506306</v>
       </c>
       <c r="H19">
-        <v>56.673724</v>
+        <v>93.012612</v>
       </c>
       <c r="I19">
-        <v>0.1721885491295427</v>
+        <v>0.6461570526675364</v>
       </c>
       <c r="J19">
-        <v>0.2319235740129618</v>
+        <v>0.6199566251839504</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>25.610932</v>
+        <v>0.03095266666666667</v>
       </c>
       <c r="N19">
-        <v>76.832796</v>
+        <v>0.092858</v>
       </c>
       <c r="O19">
-        <v>0.3774970999790308</v>
+        <v>0.0006509868122100569</v>
       </c>
       <c r="P19">
-        <v>0.4456243112083781</v>
+        <v>0.0007687619352219425</v>
       </c>
       <c r="Q19">
-        <v>483.8222971835893</v>
+        <v>1.439494187516</v>
       </c>
       <c r="R19">
-        <v>4354.400674652304</v>
+        <v>8.636965125095999</v>
       </c>
       <c r="S19">
-        <v>0.06500067794599923</v>
+        <v>0.0004206397199030854</v>
       </c>
       <c r="T19">
-        <v>0.1033507829225114</v>
+        <v>0.0004765990549300782</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -1653,22 +1653,22 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>18.89124133333333</v>
+        <v>46.506306</v>
       </c>
       <c r="H20">
-        <v>56.673724</v>
+        <v>93.012612</v>
       </c>
       <c r="I20">
-        <v>0.1721885491295427</v>
+        <v>0.6461570526675364</v>
       </c>
       <c r="J20">
-        <v>0.2319235740129618</v>
+        <v>0.6199566251839504</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,33 +1677,33 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>13.262928</v>
+        <v>13.1674365</v>
       </c>
       <c r="N20">
-        <v>26.525856</v>
+        <v>26.334873</v>
       </c>
       <c r="O20">
-        <v>0.1954913963002474</v>
+        <v>0.2769334094675747</v>
       </c>
       <c r="P20">
-        <v>0.1538479259457462</v>
+        <v>0.2180237344257262</v>
       </c>
       <c r="Q20">
-        <v>250.553173634624</v>
+        <v>612.368831104569</v>
       </c>
       <c r="R20">
-        <v>1503.319041807744</v>
+        <v>2449.475324418276</v>
       </c>
       <c r="S20">
-        <v>0.03366137989624804</v>
+        <v>0.1789424756467401</v>
       </c>
       <c r="T20">
-        <v>0.03568096083981893</v>
+        <v>0.1351652586045751</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -1715,57 +1715,57 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>18.89124133333333</v>
+        <v>46.506306</v>
       </c>
       <c r="H21">
-        <v>56.673724</v>
+        <v>93.012612</v>
       </c>
       <c r="I21">
-        <v>0.1721885491295427</v>
+        <v>0.6461570526675364</v>
       </c>
       <c r="J21">
-        <v>0.2319235740129618</v>
+        <v>0.6199566251839504</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>11.11704666666667</v>
+        <v>0.05253</v>
       </c>
       <c r="N21">
-        <v>33.35114</v>
+        <v>0.15759</v>
       </c>
       <c r="O21">
-        <v>0.1638617789074688</v>
+        <v>0.001104794543670797</v>
       </c>
       <c r="P21">
-        <v>0.1934340485346152</v>
+        <v>0.001304671577802946</v>
       </c>
       <c r="Q21">
-        <v>210.0148114939289</v>
+        <v>2.44297625418</v>
       </c>
       <c r="R21">
-        <v>1890.13330344536</v>
+        <v>14.65785752508</v>
       </c>
       <c r="S21">
-        <v>0.02821512196786295</v>
+        <v>0.0007138707861414981</v>
       </c>
       <c r="T21">
-        <v>0.04486191587194466</v>
+        <v>0.0008088397883481341</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1783,16 +1783,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>0.07323266666666667</v>
+        <v>0.133172</v>
       </c>
       <c r="H22">
-        <v>0.219698</v>
+        <v>0.399516</v>
       </c>
       <c r="I22">
-        <v>0.0006674959257426293</v>
+        <v>0.001850287292605892</v>
       </c>
       <c r="J22">
-        <v>0.0008990611833360321</v>
+        <v>0.002662892544798023</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -1801,33 +1801,33 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>17.853143</v>
+        <v>8.685451</v>
       </c>
       <c r="N22">
-        <v>35.706286</v>
+        <v>17.370902</v>
       </c>
       <c r="O22">
-        <v>0.2631497248132529</v>
+        <v>0.1826696911121277</v>
       </c>
       <c r="P22">
-        <v>0.2070937143112604</v>
+        <v>0.1438119304537112</v>
       </c>
       <c r="Q22">
-        <v>1.307433270271333</v>
+        <v>1.156658880572</v>
       </c>
       <c r="R22">
-        <v>7.844599621628</v>
+        <v>6.939953283432</v>
       </c>
       <c r="S22">
-        <v>0.0001756513691731404</v>
+        <v>0.0003379914082090134</v>
       </c>
       <c r="T22">
-        <v>0.0001861899198501359</v>
+        <v>0.0003829557174581993</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1845,16 +1845,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>0.07323266666666667</v>
+        <v>0.133172</v>
       </c>
       <c r="H23">
-        <v>0.219698</v>
+        <v>0.399516</v>
       </c>
       <c r="I23">
-        <v>0.0006674959257426293</v>
+        <v>0.001850287292605892</v>
       </c>
       <c r="J23">
-        <v>0.0008990611833360321</v>
+        <v>0.002662892544798023</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1869,27 +1869,27 @@
         <v>76.832796</v>
       </c>
       <c r="O23">
-        <v>0.3774970999790308</v>
+        <v>0.5386411180644168</v>
       </c>
       <c r="P23">
-        <v>0.4456243112083781</v>
+        <v>0.6360909016075377</v>
       </c>
       <c r="Q23">
-        <v>1.875556846178667</v>
+        <v>3.410659036304</v>
       </c>
       <c r="R23">
-        <v>16.880011615608</v>
+        <v>30.695931326736</v>
       </c>
       <c r="S23">
-        <v>0.000251977776215661</v>
+        <v>0.0009966408160296206</v>
       </c>
       <c r="T23">
-        <v>0.0004006435205583086</v>
+        <v>0.001693841719704565</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1898,7 +1898,7 @@
         <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E24">
         <v>2</v>
@@ -1907,51 +1907,51 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>0.07323266666666667</v>
+        <v>0.133172</v>
       </c>
       <c r="H24">
-        <v>0.219698</v>
+        <v>0.399516</v>
       </c>
       <c r="I24">
-        <v>0.0006674959257426293</v>
+        <v>0.001850287292605892</v>
       </c>
       <c r="J24">
-        <v>0.0008990611833360321</v>
+        <v>0.002662892544798023</v>
       </c>
       <c r="K24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M24">
-        <v>13.262928</v>
+        <v>0.03095266666666667</v>
       </c>
       <c r="N24">
-        <v>26.525856</v>
+        <v>0.092858</v>
       </c>
       <c r="O24">
-        <v>0.1954913963002474</v>
+        <v>0.0006509868122100569</v>
       </c>
       <c r="P24">
-        <v>0.1538479259457462</v>
+        <v>0.0007687619352219425</v>
       </c>
       <c r="Q24">
-        <v>0.9712795852480001</v>
+        <v>0.004122028525333333</v>
       </c>
       <c r="R24">
-        <v>5.827677511488</v>
+        <v>0.037098256728</v>
       </c>
       <c r="S24">
-        <v>0.0001304897105481528</v>
+        <v>1.204512626286286E-06</v>
       </c>
       <c r="T24">
-        <v>0.0001383186983545768</v>
+        <v>2.047130426027011E-06</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1960,7 +1960,7 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E25">
         <v>2</v>
@@ -1969,46 +1969,418 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G25">
-        <v>0.07323266666666667</v>
+        <v>0.133172</v>
       </c>
       <c r="H25">
-        <v>0.219698</v>
+        <v>0.399516</v>
       </c>
       <c r="I25">
-        <v>0.0006674959257426293</v>
+        <v>0.001850287292605892</v>
       </c>
       <c r="J25">
-        <v>0.0008990611833360321</v>
+        <v>0.002662892544798023</v>
       </c>
       <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>13.1674365</v>
+      </c>
+      <c r="N25">
+        <v>26.334873</v>
+      </c>
+      <c r="O25">
+        <v>0.2769334094675747</v>
+      </c>
+      <c r="P25">
+        <v>0.2180237344257262</v>
+      </c>
+      <c r="Q25">
+        <v>1.753533853578</v>
+      </c>
+      <c r="R25">
+        <v>10.521203121468</v>
+      </c>
+      <c r="S25">
+        <v>0.0005124063684358777</v>
+      </c>
+      <c r="T25">
+        <v>0.0005805737769912905</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G26">
+        <v>0.133172</v>
+      </c>
+      <c r="H26">
+        <v>0.399516</v>
+      </c>
+      <c r="I26">
+        <v>0.001850287292605892</v>
+      </c>
+      <c r="J26">
+        <v>0.002662892544798023</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M26">
+        <v>0.05253</v>
+      </c>
+      <c r="N26">
+        <v>0.15759</v>
+      </c>
+      <c r="O26">
+        <v>0.001104794543670797</v>
+      </c>
+      <c r="P26">
+        <v>0.001304671577802946</v>
+      </c>
+      <c r="Q26">
+        <v>0.006995525159999999</v>
+      </c>
+      <c r="R26">
+        <v>0.06295972644</v>
+      </c>
+      <c r="S26">
+        <v>2.044187305094401E-06</v>
+      </c>
+      <c r="T26">
+        <v>3.474200217941338E-06</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G27">
+        <v>0.148336</v>
+      </c>
+      <c r="H27">
+        <v>0.445008</v>
+      </c>
+      <c r="I27">
+        <v>0.0020609753990027</v>
+      </c>
+      <c r="J27">
+        <v>0.002966110207289517</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>8.685451</v>
+      </c>
+      <c r="N27">
+        <v>17.370902</v>
+      </c>
+      <c r="O27">
+        <v>0.1826696911121277</v>
+      </c>
+      <c r="P27">
+        <v>0.1438119304537112</v>
+      </c>
+      <c r="Q27">
+        <v>1.288365059536</v>
+      </c>
+      <c r="R27">
+        <v>7.730190357216001</v>
+      </c>
+      <c r="S27">
+        <v>0.0003764777395255174</v>
+      </c>
+      <c r="T27">
+        <v>0.0004265620348487629</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G28">
+        <v>0.148336</v>
+      </c>
+      <c r="H28">
+        <v>0.445008</v>
+      </c>
+      <c r="I28">
+        <v>0.0020609753990027</v>
+      </c>
+      <c r="J28">
+        <v>0.002966110207289517</v>
+      </c>
+      <c r="K28">
         <v>3</v>
       </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>11.11704666666667</v>
-      </c>
-      <c r="N25">
-        <v>33.35114</v>
-      </c>
-      <c r="O25">
-        <v>0.1638617789074688</v>
-      </c>
-      <c r="P25">
-        <v>0.1934340485346152</v>
-      </c>
-      <c r="Q25">
-        <v>0.8141309728577778</v>
-      </c>
-      <c r="R25">
-        <v>7.32717875572</v>
-      </c>
-      <c r="S25">
-        <v>0.0001093770698056749</v>
-      </c>
-      <c r="T25">
-        <v>0.0001739090445730106</v>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>25.610932</v>
+      </c>
+      <c r="N28">
+        <v>76.832796</v>
+      </c>
+      <c r="O28">
+        <v>0.5386411180644168</v>
+      </c>
+      <c r="P28">
+        <v>0.6360909016075377</v>
+      </c>
+      <c r="Q28">
+        <v>3.799023209152</v>
+      </c>
+      <c r="R28">
+        <v>34.191208882368</v>
+      </c>
+      <c r="S28">
+        <v>0.001110126093222072</v>
+      </c>
+      <c r="T28">
+        <v>0.001886715716022109</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G29">
+        <v>0.148336</v>
+      </c>
+      <c r="H29">
+        <v>0.445008</v>
+      </c>
+      <c r="I29">
+        <v>0.0020609753990027</v>
+      </c>
+      <c r="J29">
+        <v>0.002966110207289517</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M29">
+        <v>0.03095266666666667</v>
+      </c>
+      <c r="N29">
+        <v>0.092858</v>
+      </c>
+      <c r="O29">
+        <v>0.0006509868122100569</v>
+      </c>
+      <c r="P29">
+        <v>0.0007687619352219425</v>
+      </c>
+      <c r="Q29">
+        <v>0.004591394762666666</v>
+      </c>
+      <c r="R29">
+        <v>0.041322552864</v>
+      </c>
+      <c r="S29">
+        <v>1.341667805040118E-06</v>
+      </c>
+      <c r="T29">
+        <v>2.280232623037446E-06</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G30">
+        <v>0.148336</v>
+      </c>
+      <c r="H30">
+        <v>0.445008</v>
+      </c>
+      <c r="I30">
+        <v>0.0020609753990027</v>
+      </c>
+      <c r="J30">
+        <v>0.002966110207289517</v>
+      </c>
+      <c r="K30">
+        <v>2</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>13.1674365</v>
+      </c>
+      <c r="N30">
+        <v>26.334873</v>
+      </c>
+      <c r="O30">
+        <v>0.2769334094675747</v>
+      </c>
+      <c r="P30">
+        <v>0.2180237344257262</v>
+      </c>
+      <c r="Q30">
+        <v>1.953204860664</v>
+      </c>
+      <c r="R30">
+        <v>11.719229163984</v>
+      </c>
+      <c r="S30">
+        <v>0.0005707529440746129</v>
+      </c>
+      <c r="T30">
+        <v>0.0006466824241115255</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G31">
+        <v>0.148336</v>
+      </c>
+      <c r="H31">
+        <v>0.445008</v>
+      </c>
+      <c r="I31">
+        <v>0.0020609753990027</v>
+      </c>
+      <c r="J31">
+        <v>0.002966110207289517</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M31">
+        <v>0.05253</v>
+      </c>
+      <c r="N31">
+        <v>0.15759</v>
+      </c>
+      <c r="O31">
+        <v>0.001104794543670797</v>
+      </c>
+      <c r="P31">
+        <v>0.001304671577802946</v>
+      </c>
+      <c r="Q31">
+        <v>0.007792090079999999</v>
+      </c>
+      <c r="R31">
+        <v>0.07012881072</v>
+      </c>
+      <c r="S31">
+        <v>2.276954375457927E-06</v>
+      </c>
+      <c r="T31">
+        <v>3.869799684081837E-06</v>
       </c>
     </row>
   </sheetData>
